--- a/contratos/contratos-11-2018.xlsx
+++ b/contratos/contratos-11-2018.xlsx
@@ -1069,7 +1069,7 @@
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>ALBA ANDREA BEATRIZ</t>
@@ -1087,7 +1087,7 @@
     <t>OCHOA PEDRO MIGUEL</t>
   </si>
   <si>
-    <t>PARPAGNOLI, PEDRO RICARDO</t>
+    <t>PARPAGNOLI. PEDRO RICARDO</t>
   </si>
   <si>
     <t>PEREYRA VANESA ANDREA</t>
@@ -1147,7 +1147,7 @@
     <t>FERREYRA EDUARDO FEDERICO</t>
   </si>
   <si>
-    <t>GIMENEZ ANIBAL, FALISTOCCO MARISA DANIELA S.H.</t>
+    <t>GIMENEZ ANIBAL. FALISTOCCO MARISA DANIELA SH</t>
   </si>
   <si>
     <t>ACOSTA PAOLA ALEJANDRA</t>
@@ -1288,7 +1288,7 @@
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1315,7 +1315,7 @@
     <t>SCEVOLA MAURICIO OSVALDO</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>TOSONE DANIEL ENRIQUE</t>
@@ -1603,7 +1603,7 @@
     <t>OCHOA PEDRO MIGUEL ( SP )</t>
   </si>
   <si>
-    <t>PARPAGNOLI, PEDRO RICARDO ( SP )</t>
+    <t>PARPAGNOLI. PEDRO RICARDO ( SP )</t>
   </si>
   <si>
     <t>PEREYRA VANESA ANDREA ( SP )</t>
@@ -1888,667 +1888,667 @@
     <t>83</t>
   </si>
   <si>
-    <t>13.680,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>4.650,00</t>
-  </si>
-  <si>
-    <t>49.200,00</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>250.000,00</t>
-  </si>
-  <si>
-    <t>49.480,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>500.000,00</t>
-  </si>
-  <si>
-    <t>514.000,00</t>
-  </si>
-  <si>
-    <t>1.575,00</t>
-  </si>
-  <si>
-    <t>47.600,00</t>
-  </si>
-  <si>
-    <t>5.730,00</t>
-  </si>
-  <si>
-    <t>10.200,00</t>
-  </si>
-  <si>
-    <t>87.422,50</t>
-  </si>
-  <si>
-    <t>242.000,00</t>
-  </si>
-  <si>
-    <t>10.950,00</t>
-  </si>
-  <si>
-    <t>890.149,04</t>
-  </si>
-  <si>
-    <t>599.972,76</t>
-  </si>
-  <si>
-    <t>359.516,08</t>
-  </si>
-  <si>
-    <t>49.750,00</t>
-  </si>
-  <si>
-    <t>138.463,84</t>
-  </si>
-  <si>
-    <t>384.204,65</t>
-  </si>
-  <si>
-    <t>65.921,04</t>
-  </si>
-  <si>
-    <t>3.200,50</t>
-  </si>
-  <si>
-    <t>5.280,00</t>
-  </si>
-  <si>
-    <t>9.082,00</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>52.545,90</t>
-  </si>
-  <si>
-    <t>735,00</t>
-  </si>
-  <si>
-    <t>573.026,90</t>
-  </si>
-  <si>
-    <t>47.780,68</t>
-  </si>
-  <si>
-    <t>31.300,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>4.450,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>1.348,00</t>
-  </si>
-  <si>
-    <t>4.640,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>870,00</t>
-  </si>
-  <si>
-    <t>26.485,00</t>
-  </si>
-  <si>
-    <t>1.964,20</t>
-  </si>
-  <si>
-    <t>147.988,96</t>
-  </si>
-  <si>
-    <t>363.710,03</t>
-  </si>
-  <si>
-    <t>95.914,23</t>
-  </si>
-  <si>
-    <t>275,00</t>
-  </si>
-  <si>
-    <t>536.300,00</t>
-  </si>
-  <si>
-    <t>211.852,00</t>
-  </si>
-  <si>
-    <t>2.649,86</t>
-  </si>
-  <si>
-    <t>1.714,96</t>
-  </si>
-  <si>
-    <t>1.143,36</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>10.480,40</t>
-  </si>
-  <si>
-    <t>28.655,42</t>
-  </si>
-  <si>
-    <t>90.090,00</t>
-  </si>
-  <si>
-    <t>26.668,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>44.538,00</t>
-  </si>
-  <si>
-    <t>27.040,00</t>
-  </si>
-  <si>
-    <t>11.115,00</t>
-  </si>
-  <si>
-    <t>2.195,11</t>
-  </si>
-  <si>
-    <t>26.704,57</t>
-  </si>
-  <si>
-    <t>485,00</t>
-  </si>
-  <si>
-    <t>9.606,00</t>
-  </si>
-  <si>
-    <t>7.581,60</t>
-  </si>
-  <si>
-    <t>12.827,98</t>
-  </si>
-  <si>
-    <t>1.866,30</t>
-  </si>
-  <si>
-    <t>17.970,00</t>
-  </si>
-  <si>
-    <t>475,00</t>
-  </si>
-  <si>
-    <t>151.556,87</t>
-  </si>
-  <si>
-    <t>32.357,04</t>
-  </si>
-  <si>
-    <t>7.800,00</t>
-  </si>
-  <si>
-    <t>5,70</t>
-  </si>
-  <si>
-    <t>820,59</t>
-  </si>
-  <si>
-    <t>732.429,50</t>
-  </si>
-  <si>
-    <t>5.180,00</t>
-  </si>
-  <si>
-    <t>7.043,36</t>
-  </si>
-  <si>
-    <t>6.420,00</t>
-  </si>
-  <si>
-    <t>13.453,00</t>
-  </si>
-  <si>
-    <t>306.800,00</t>
-  </si>
-  <si>
-    <t>10.039,95</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>53.550,00</t>
-  </si>
-  <si>
-    <t>15.164,00</t>
-  </si>
-  <si>
-    <t>62.500,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>572,00</t>
-  </si>
-  <si>
-    <t>17.540,00</t>
-  </si>
-  <si>
-    <t>3.140,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>12.240,00</t>
-  </si>
-  <si>
-    <t>1.995,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>47.799,99</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>48.891,00</t>
-  </si>
-  <si>
-    <t>2.690,00</t>
-  </si>
-  <si>
-    <t>23.698,62</t>
-  </si>
-  <si>
-    <t>4.631,00</t>
-  </si>
-  <si>
-    <t>70.627,00</t>
-  </si>
-  <si>
-    <t>0,10</t>
-  </si>
-  <si>
-    <t>7,05</t>
-  </si>
-  <si>
-    <t>4.147,50</t>
-  </si>
-  <si>
-    <t>11.264,03</t>
-  </si>
-  <si>
-    <t>1.529,50</t>
-  </si>
-  <si>
-    <t>125,00</t>
-  </si>
-  <si>
-    <t>41.900,00</t>
-  </si>
-  <si>
-    <t>273,50</t>
-  </si>
-  <si>
-    <t>6.371,46</t>
-  </si>
-  <si>
-    <t>61.766,51</t>
-  </si>
-  <si>
-    <t>35.500,00</t>
-  </si>
-  <si>
-    <t>384,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.583,00</t>
-  </si>
-  <si>
-    <t>510,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>6.143,00</t>
-  </si>
-  <si>
-    <t>7.433,20</t>
-  </si>
-  <si>
-    <t>34.599,10</t>
-  </si>
-  <si>
-    <t>1.072,10</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>640,30</t>
-  </si>
-  <si>
-    <t>67.800,00</t>
-  </si>
-  <si>
-    <t>5.549,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>10.090,00</t>
-  </si>
-  <si>
-    <t>21.700,00</t>
-  </si>
-  <si>
-    <t>30.500,00</t>
-  </si>
-  <si>
-    <t>4.760,00</t>
-  </si>
-  <si>
-    <t>120.300,00</t>
-  </si>
-  <si>
-    <t>67.860,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>264.400,00</t>
-  </si>
-  <si>
-    <t>43.200,00</t>
-  </si>
-  <si>
-    <t>9.945,58</t>
-  </si>
-  <si>
-    <t>100.384,04</t>
-  </si>
-  <si>
-    <t>11.884,90</t>
-  </si>
-  <si>
-    <t>553.000,00</t>
-  </si>
-  <si>
-    <t>50.000,00</t>
-  </si>
-  <si>
-    <t>28.000,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>20.000,50</t>
-  </si>
-  <si>
-    <t>21.050,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>20.800,00</t>
-  </si>
-  <si>
-    <t>74.000,00</t>
-  </si>
-  <si>
-    <t>45.303,52</t>
-  </si>
-  <si>
-    <t>61.340,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>9.300,00</t>
-  </si>
-  <si>
-    <t>1.450,00</t>
-  </si>
-  <si>
-    <t>9.950,00</t>
-  </si>
-  <si>
-    <t>184,87</t>
-  </si>
-  <si>
-    <t>25.575,00</t>
-  </si>
-  <si>
-    <t>1.331,00</t>
-  </si>
-  <si>
-    <t>8.122,20</t>
-  </si>
-  <si>
-    <t>14.300,00</t>
-  </si>
-  <si>
-    <t>10.705,00</t>
-  </si>
-  <si>
-    <t>847,57</t>
-  </si>
-  <si>
-    <t>667,08</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>2.020,00</t>
-  </si>
-  <si>
-    <t>1.980,00</t>
-  </si>
-  <si>
-    <t>12.004,00</t>
-  </si>
-  <si>
-    <t>38,27</t>
-  </si>
-  <si>
-    <t>16.850,00</t>
-  </si>
-  <si>
-    <t>6.330,98</t>
-  </si>
-  <si>
-    <t>4.518,16</t>
-  </si>
-  <si>
-    <t>12.060,00</t>
-  </si>
-  <si>
-    <t>15.218,00</t>
-  </si>
-  <si>
-    <t>11.950,44</t>
-  </si>
-  <si>
-    <t>876,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>2.150,00</t>
-  </si>
-  <si>
-    <t>780,00</t>
-  </si>
-  <si>
-    <t>4.621,50</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>101.676,20</t>
-  </si>
-  <si>
-    <t>6.903,00</t>
-  </si>
-  <si>
-    <t>120.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>67.500,00</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>29.500,00</t>
-  </si>
-  <si>
-    <t>98.792,74</t>
-  </si>
-  <si>
-    <t>8.200,00</t>
-  </si>
-  <si>
-    <t>5.375.758,89</t>
-  </si>
-  <si>
-    <t>17.899.878,97</t>
-  </si>
-  <si>
-    <t>1.447.421,00</t>
-  </si>
-  <si>
-    <t>383.000,00</t>
-  </si>
-  <si>
-    <t>697.000,00</t>
-  </si>
-  <si>
-    <t>908.000,00</t>
-  </si>
-  <si>
-    <t>1.059.200,00</t>
-  </si>
-  <si>
-    <t>706.000,00</t>
-  </si>
-  <si>
-    <t>1.011.000,00</t>
-  </si>
-  <si>
-    <t>718.000,00</t>
-  </si>
-  <si>
-    <t>386.170,00</t>
-  </si>
-  <si>
-    <t>994.999,60</t>
-  </si>
-  <si>
-    <t>378.507,08</t>
-  </si>
-  <si>
-    <t>69.300,00</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>93.750,00</t>
-  </si>
-  <si>
-    <t>236.000,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>15.668,00</t>
-  </si>
-  <si>
-    <t>839,01</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>142.730,00</t>
-  </si>
-  <si>
-    <t>43.647,50</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>474.850,00</t>
-  </si>
-  <si>
-    <t>1.924,98</t>
-  </si>
-  <si>
-    <t>13.800,00</t>
+    <t>13680.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>49200.00</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>250000.00</t>
+  </si>
+  <si>
+    <t>49480.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>500000.00</t>
+  </si>
+  <si>
+    <t>514000.00</t>
+  </si>
+  <si>
+    <t>1575.00</t>
+  </si>
+  <si>
+    <t>47600.00</t>
+  </si>
+  <si>
+    <t>5730.00</t>
+  </si>
+  <si>
+    <t>10200.00</t>
+  </si>
+  <si>
+    <t>87422.50</t>
+  </si>
+  <si>
+    <t>242000.00</t>
+  </si>
+  <si>
+    <t>10950.00</t>
+  </si>
+  <si>
+    <t>890149.04</t>
+  </si>
+  <si>
+    <t>599972.76</t>
+  </si>
+  <si>
+    <t>359516.08</t>
+  </si>
+  <si>
+    <t>49750.00</t>
+  </si>
+  <si>
+    <t>138463.84</t>
+  </si>
+  <si>
+    <t>384204.65</t>
+  </si>
+  <si>
+    <t>65921.04</t>
+  </si>
+  <si>
+    <t>3200.50</t>
+  </si>
+  <si>
+    <t>5280.00</t>
+  </si>
+  <si>
+    <t>9082.00</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>52545.90</t>
+  </si>
+  <si>
+    <t>735.00</t>
+  </si>
+  <si>
+    <t>573026.90</t>
+  </si>
+  <si>
+    <t>47780.68</t>
+  </si>
+  <si>
+    <t>31300.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>4450.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>1348.00</t>
+  </si>
+  <si>
+    <t>4640.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>870.00</t>
+  </si>
+  <si>
+    <t>26485.00</t>
+  </si>
+  <si>
+    <t>1964.20</t>
+  </si>
+  <si>
+    <t>147988.96</t>
+  </si>
+  <si>
+    <t>363710.03</t>
+  </si>
+  <si>
+    <t>95914.23</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>536300.00</t>
+  </si>
+  <si>
+    <t>211852.00</t>
+  </si>
+  <si>
+    <t>2649.86</t>
+  </si>
+  <si>
+    <t>1714.96</t>
+  </si>
+  <si>
+    <t>1143.36</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>10480.40</t>
+  </si>
+  <si>
+    <t>28655.42</t>
+  </si>
+  <si>
+    <t>90090.00</t>
+  </si>
+  <si>
+    <t>26668.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>44538.00</t>
+  </si>
+  <si>
+    <t>27040.00</t>
+  </si>
+  <si>
+    <t>11115.00</t>
+  </si>
+  <si>
+    <t>2195.11</t>
+  </si>
+  <si>
+    <t>26704.57</t>
+  </si>
+  <si>
+    <t>485.00</t>
+  </si>
+  <si>
+    <t>9606.00</t>
+  </si>
+  <si>
+    <t>7581.60</t>
+  </si>
+  <si>
+    <t>12827.98</t>
+  </si>
+  <si>
+    <t>1866.30</t>
+  </si>
+  <si>
+    <t>17970.00</t>
+  </si>
+  <si>
+    <t>475.00</t>
+  </si>
+  <si>
+    <t>151556.87</t>
+  </si>
+  <si>
+    <t>32357.04</t>
+  </si>
+  <si>
+    <t>7800.00</t>
+  </si>
+  <si>
+    <t>5.70</t>
+  </si>
+  <si>
+    <t>820.59</t>
+  </si>
+  <si>
+    <t>732429.50</t>
+  </si>
+  <si>
+    <t>5180.00</t>
+  </si>
+  <si>
+    <t>7043.36</t>
+  </si>
+  <si>
+    <t>6420.00</t>
+  </si>
+  <si>
+    <t>13453.00</t>
+  </si>
+  <si>
+    <t>306800.00</t>
+  </si>
+  <si>
+    <t>10039.95</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>53550.00</t>
+  </si>
+  <si>
+    <t>15164.00</t>
+  </si>
+  <si>
+    <t>62500.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>572.00</t>
+  </si>
+  <si>
+    <t>17540.00</t>
+  </si>
+  <si>
+    <t>3140.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>12240.00</t>
+  </si>
+  <si>
+    <t>1995.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>47799.99</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>48891.00</t>
+  </si>
+  <si>
+    <t>2690.00</t>
+  </si>
+  <si>
+    <t>23698.62</t>
+  </si>
+  <si>
+    <t>4631.00</t>
+  </si>
+  <si>
+    <t>70627.00</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>7.05</t>
+  </si>
+  <si>
+    <t>4147.50</t>
+  </si>
+  <si>
+    <t>11264.03</t>
+  </si>
+  <si>
+    <t>1529.50</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>41900.00</t>
+  </si>
+  <si>
+    <t>273.50</t>
+  </si>
+  <si>
+    <t>6371.46</t>
+  </si>
+  <si>
+    <t>61766.51</t>
+  </si>
+  <si>
+    <t>35500.00</t>
+  </si>
+  <si>
+    <t>384.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1583.00</t>
+  </si>
+  <si>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>6143.00</t>
+  </si>
+  <si>
+    <t>7433.20</t>
+  </si>
+  <si>
+    <t>34599.10</t>
+  </si>
+  <si>
+    <t>1072.10</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>640.30</t>
+  </si>
+  <si>
+    <t>67800.00</t>
+  </si>
+  <si>
+    <t>5549.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>10090.00</t>
+  </si>
+  <si>
+    <t>21700.00</t>
+  </si>
+  <si>
+    <t>30500.00</t>
+  </si>
+  <si>
+    <t>4760.00</t>
+  </si>
+  <si>
+    <t>120300.00</t>
+  </si>
+  <si>
+    <t>67860.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>264400.00</t>
+  </si>
+  <si>
+    <t>43200.00</t>
+  </si>
+  <si>
+    <t>9945.58</t>
+  </si>
+  <si>
+    <t>100384.04</t>
+  </si>
+  <si>
+    <t>11884.90</t>
+  </si>
+  <si>
+    <t>553000.00</t>
+  </si>
+  <si>
+    <t>50000.00</t>
+  </si>
+  <si>
+    <t>28000.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>20000.50</t>
+  </si>
+  <si>
+    <t>21050.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>20800.00</t>
+  </si>
+  <si>
+    <t>74000.00</t>
+  </si>
+  <si>
+    <t>45303.52</t>
+  </si>
+  <si>
+    <t>61340.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>9300.00</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>9950.00</t>
+  </si>
+  <si>
+    <t>184.87</t>
+  </si>
+  <si>
+    <t>25575.00</t>
+  </si>
+  <si>
+    <t>1331.00</t>
+  </si>
+  <si>
+    <t>8122.20</t>
+  </si>
+  <si>
+    <t>14300.00</t>
+  </si>
+  <si>
+    <t>10705.00</t>
+  </si>
+  <si>
+    <t>847.57</t>
+  </si>
+  <si>
+    <t>667.08</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>2020.00</t>
+  </si>
+  <si>
+    <t>1980.00</t>
+  </si>
+  <si>
+    <t>12004.00</t>
+  </si>
+  <si>
+    <t>38.27</t>
+  </si>
+  <si>
+    <t>16850.00</t>
+  </si>
+  <si>
+    <t>6330.98</t>
+  </si>
+  <si>
+    <t>4518.16</t>
+  </si>
+  <si>
+    <t>12060.00</t>
+  </si>
+  <si>
+    <t>15218.00</t>
+  </si>
+  <si>
+    <t>11950.44</t>
+  </si>
+  <si>
+    <t>876.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>2150.00</t>
+  </si>
+  <si>
+    <t>780.00</t>
+  </si>
+  <si>
+    <t>4621.50</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>101676.20</t>
+  </si>
+  <si>
+    <t>6903.00</t>
+  </si>
+  <si>
+    <t>120000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>67500.00</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>29500.00</t>
+  </si>
+  <si>
+    <t>98792.74</t>
+  </si>
+  <si>
+    <t>8200.00</t>
+  </si>
+  <si>
+    <t>5375758.89</t>
+  </si>
+  <si>
+    <t>17899878.97</t>
+  </si>
+  <si>
+    <t>1447421.00</t>
+  </si>
+  <si>
+    <t>383000.00</t>
+  </si>
+  <si>
+    <t>697000.00</t>
+  </si>
+  <si>
+    <t>908000.00</t>
+  </si>
+  <si>
+    <t>1059200.00</t>
+  </si>
+  <si>
+    <t>706000.00</t>
+  </si>
+  <si>
+    <t>1011000.00</t>
+  </si>
+  <si>
+    <t>718000.00</t>
+  </si>
+  <si>
+    <t>386170.00</t>
+  </si>
+  <si>
+    <t>994999.60</t>
+  </si>
+  <si>
+    <t>378507.08</t>
+  </si>
+  <si>
+    <t>69300.00</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>93750.00</t>
+  </si>
+  <si>
+    <t>236000.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>15668.00</t>
+  </si>
+  <si>
+    <t>839.01</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>142730.00</t>
+  </si>
+  <si>
+    <t>43647.50</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>474850.00</t>
+  </si>
+  <si>
+    <t>1924.98</t>
+  </si>
+  <si>
+    <t>13800.00</t>
   </si>
 </sst>
 </file>
